--- a/61-Visual Text Window 视觉 文本窗口.xlsx
+++ b/61-Visual Text Window 视觉 文本窗口.xlsx
@@ -4,19 +4,59 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="13140"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="插件指令" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="介绍" sheetId="2" r:id="rId1"/>
+    <sheet name="插件指令" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>介绍</t>
+  </si>
+  <si>
+    <t>你有没有想过在玩家探索时在屏幕上创建一个指令窗口，或者在地图的某些部分或特定战斗阶段详细说明玩家需要做什么的信息窗口？</t>
+  </si>
+  <si>
+    <t>此插件允许您创建一个文本填充窗口并将其放在屏幕上，而不需要“显示文本”事件。视觉文本窗口将在屏幕上徘徊。它将在收到命令时更新和/或删除自己。</t>
+  </si>
+  <si>
+    <t>功能包括以下所有（但不限于）：</t>
+  </si>
+  <si>
+    <t>·在屏幕上的任何位置放置无限数量的自定义文本可视文本窗口，用于战斗和地图场景。</t>
+  </si>
+  <si>
+    <t>·支持文本代码。</t>
+  </si>
+  <si>
+    <t>·自动调整视觉文本窗口的宽度和高度，以适应您插入其中的文本，使其看起来干净整洁。</t>
+  </si>
+  <si>
+    <t>·在需要时，在游戏中途更改和刷新它们。</t>
+  </si>
+  <si>
+    <t>·立即删除它们，或者等到它们按需关闭后再删除。</t>
+  </si>
   <si>
     <t>The Visual Text Window plugin lets you create and position text windows on the screen to assist you in delivering data to your players. It supports text codes, variables, and more!</t>
   </si>
@@ -31,6 +71,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">将新创建的可视文本窗口添加到场景中。
 或者用新设置更改现有的。
 </t>
@@ -49,6 +96,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Customized Settings:自定义设置
 </t>
     </r>
@@ -77,6 +132,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>刷新</t>
     </r>
     <r>
@@ -106,6 +169,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>删除</t>
     </r>
     <r>
@@ -141,6 +212,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">层位置。
 </t>
     </r>
@@ -201,14 +279,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,60 +326,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,45 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -362,22 +381,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -385,6 +412,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -393,7 +443,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,187 +507,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,16 +702,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,22 +749,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,32 +782,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,148 +803,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -902,52 +973,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1247,10 +1318,77 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="115.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1261,12 +1399,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1290,50 +1428,50 @@
     </row>
     <row r="4" ht="18.75" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="51" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="133.5" spans="1:2">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="61.5" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:1">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" ht="37.5" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1342,23 +1480,6 @@
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A5:A6"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
